--- a/output/comment_robust_cosine.xlsx
+++ b/output/comment_robust_cosine.xlsx
@@ -429,22 +429,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1176152537251617</v>
+        <v>0.008410831808668317</v>
       </c>
       <c r="D2">
-        <v>0.07695803169670978</v>
+        <v>0.01560261402109205</v>
       </c>
       <c r="E2">
-        <v>0.06480823696904681</v>
+        <v>0.02582039862417171</v>
       </c>
       <c r="F2">
-        <v>0.3433354830812559</v>
+        <v>0.03493763345284811</v>
       </c>
       <c r="G2">
-        <v>0.3106785864007376</v>
+        <v>0.03243740163375558</v>
       </c>
       <c r="H2">
-        <v>0.04941657032599511</v>
+        <v>0.03243740163375558</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1176152537251617</v>
+        <v>0.03148197861585629</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.02307114680718797</v>
       </c>
       <c r="D3">
-        <v>0.08267135578799156</v>
+        <v>0.03435296560864418</v>
       </c>
       <c r="E3">
-        <v>0.1111989569263688</v>
+        <v>0.05323705241963983</v>
       </c>
       <c r="F3">
-        <v>0.4056526287262922</v>
+        <v>0.05526314840850945</v>
       </c>
       <c r="G3">
-        <v>0.2603997383663612</v>
+        <v>0.05628486123200228</v>
       </c>
       <c r="H3">
-        <v>0.08490879497730042</v>
+        <v>0.0578000127471538</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,25 +478,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.07695803169670978</v>
+        <v>0.05570116132816332</v>
       </c>
       <c r="C4">
-        <v>0.08267135578799156</v>
+        <v>0.05885033699633722</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.04049744678175065</v>
       </c>
       <c r="E4">
-        <v>0.12717933771906</v>
+        <v>0.04559978688472993</v>
       </c>
       <c r="F4">
-        <v>0.5053617246181381</v>
+        <v>0.05650306181003689</v>
       </c>
       <c r="G4">
-        <v>0.4777670321329065</v>
+        <v>0.06871633222280564</v>
       </c>
       <c r="H4">
-        <v>0.1029535716018877</v>
+        <v>0.07078836929548189</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,25 +504,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.06480823696904681</v>
+        <v>0.07203579836998324</v>
       </c>
       <c r="C5">
-        <v>0.1111989569263688</v>
+        <v>0.07290580998739417</v>
       </c>
       <c r="D5">
-        <v>0.12717933771906</v>
+        <v>0.07290580998739417</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.04160834776162171</v>
       </c>
       <c r="F5">
-        <v>0.1686327857827388</v>
+        <v>0.05970424950227582</v>
       </c>
       <c r="G5">
-        <v>0.2695864101221149</v>
+        <v>0.0639690344469217</v>
       </c>
       <c r="H5">
-        <v>0.009943538160199217</v>
+        <v>0.06699933747722474</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,25 +530,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3433354830812559</v>
+        <v>0.07005645485384202</v>
       </c>
       <c r="C6">
-        <v>0.4056526287262922</v>
+        <v>0.06806956506052939</v>
       </c>
       <c r="D6">
-        <v>0.5053617246181381</v>
+        <v>0.06806956506052939</v>
       </c>
       <c r="E6">
-        <v>0.1686327857827388</v>
+        <v>0.06935204415070965</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.02959232779438284</v>
       </c>
       <c r="G6">
-        <v>0.2422718505848976</v>
+        <v>0.04822205446271444</v>
       </c>
       <c r="H6">
-        <v>0.2387477552835277</v>
+        <v>0.05125235749301747</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,25 +556,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3106785864007376</v>
+        <v>0.04975566390803986</v>
       </c>
       <c r="C7">
-        <v>0.2603997383663612</v>
+        <v>0.04719018814370493</v>
       </c>
       <c r="D7">
-        <v>0.4777670321329065</v>
+        <v>0.04863492855557249</v>
       </c>
       <c r="E7">
-        <v>0.2695864101221149</v>
+        <v>0.04698311890427899</v>
       </c>
       <c r="F7">
-        <v>0.2422718505848976</v>
+        <v>0.05125235749301747</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.008132643133282309</v>
       </c>
       <c r="H7">
-        <v>0.2849338985817113</v>
+        <v>0.009950824951464127</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -582,22 +582,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.04941657032599511</v>
+        <v>0.01050771050898886</v>
       </c>
       <c r="C8">
-        <v>0.08490879497730042</v>
+        <v>0.01010633010888681</v>
       </c>
       <c r="D8">
-        <v>0.1029535716018877</v>
+        <v>0.01010633010888681</v>
       </c>
       <c r="E8">
-        <v>0.009943538160199217</v>
+        <v>0.01050771050898886</v>
       </c>
       <c r="F8">
-        <v>0.2387477552835277</v>
+        <v>0.009950824951464127</v>
       </c>
       <c r="G8">
-        <v>0.2849338985817113</v>
+        <v>0.009950824951464127</v>
       </c>
       <c r="H8">
         <v>0</v>

--- a/output/comment_robust_cosine.xlsx
+++ b/output/comment_robust_cosine.xlsx
@@ -429,22 +429,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.008410831808668317</v>
+        <v>0.03142933186042606</v>
       </c>
       <c r="D2">
-        <v>0.01560261402109205</v>
+        <v>0.01008024445162238</v>
       </c>
       <c r="E2">
-        <v>0.02582039862417171</v>
+        <v>0.07861401805066046</v>
       </c>
       <c r="F2">
-        <v>0.03493763345284811</v>
+        <v>0.004529710325995512</v>
       </c>
       <c r="G2">
-        <v>0.03243740163375558</v>
+        <v>0.02703980123121348</v>
       </c>
       <c r="H2">
-        <v>0.03243740163375558</v>
+        <v>0.0007700224448264598</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.03148197861585629</v>
+        <v>0.03142933186042606</v>
       </c>
       <c r="C3">
-        <v>0.02307114680718797</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.03435296560864418</v>
+        <v>0.01171694068245398</v>
       </c>
       <c r="E3">
-        <v>0.05323705241963983</v>
+        <v>0.03473543622206738</v>
       </c>
       <c r="F3">
-        <v>0.05526314840850945</v>
+        <v>0.04412324630986304</v>
       </c>
       <c r="G3">
-        <v>0.05628486123200228</v>
+        <v>0.03011793350327823</v>
       </c>
       <c r="H3">
-        <v>0.0578000127471538</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,25 +478,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.05570116132816332</v>
+        <v>0.01008024445162238</v>
       </c>
       <c r="C4">
-        <v>0.05885033699633722</v>
+        <v>0.01171694068245398</v>
       </c>
       <c r="D4">
-        <v>0.04049744678175065</v>
-      </c>
-      <c r="E4">
-        <v>0.04559978688472993</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.05650306181003689</v>
+        <v>0.0108507660367423</v>
       </c>
       <c r="G4">
-        <v>0.06871633222280564</v>
+        <v>0.03043781483964634</v>
       </c>
       <c r="H4">
-        <v>0.07078836929548189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,25 +501,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.07203579836998324</v>
+        <v>0.07861401805066046</v>
       </c>
       <c r="C5">
-        <v>0.07290580998739417</v>
-      </c>
-      <c r="D5">
-        <v>0.07290580998739417</v>
+        <v>0.03473543622206738</v>
       </c>
       <c r="E5">
-        <v>0.04160834776162171</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.05970424950227582</v>
+        <v>0.05100373963249238</v>
       </c>
       <c r="G5">
-        <v>0.0639690344469217</v>
+        <v>0.01454923649611703</v>
       </c>
       <c r="H5">
-        <v>0.06699933747722474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,25 +524,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07005645485384202</v>
+        <v>0.004529710325995512</v>
       </c>
       <c r="C6">
-        <v>0.06806956506052939</v>
+        <v>0.04412324630986304</v>
       </c>
       <c r="D6">
-        <v>0.06806956506052939</v>
+        <v>0.0108507660367423</v>
       </c>
       <c r="E6">
-        <v>0.06935204415070965</v>
+        <v>0.05100373963249238</v>
       </c>
       <c r="F6">
-        <v>0.02959232779438284</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.04822205446271444</v>
-      </c>
-      <c r="H6">
-        <v>0.05125235749301747</v>
+        <v>0.05551903320708908</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,25 +547,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.04975566390803986</v>
+        <v>0.02703980123121348</v>
       </c>
       <c r="C7">
-        <v>0.04719018814370493</v>
+        <v>0.03011793350327823</v>
       </c>
       <c r="D7">
-        <v>0.04863492855557249</v>
+        <v>0.03043781483964634</v>
       </c>
       <c r="E7">
-        <v>0.04698311890427899</v>
+        <v>0.01454923649611703</v>
       </c>
       <c r="F7">
-        <v>0.05125235749301747</v>
+        <v>0.05551903320708908</v>
       </c>
       <c r="G7">
-        <v>0.008132643133282309</v>
-      </c>
-      <c r="H7">
-        <v>0.009950824951464127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -582,22 +570,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.01050771050898886</v>
+        <v>0.0007700224448264598</v>
       </c>
       <c r="C8">
-        <v>0.01010633010888681</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01010633010888681</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0.01050771050898886</v>
-      </c>
-      <c r="F8">
-        <v>0.009950824951464127</v>
-      </c>
-      <c r="G8">
-        <v>0.009950824951464127</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>

--- a/output/comment_robust_cosine.xlsx
+++ b/output/comment_robust_cosine.xlsx
@@ -19,22 +19,22 @@
     <t>เมจิ</t>
   </si>
   <si>
+    <t>ดัชมิลล์</t>
+  </si>
+  <si>
+    <t>โฟร์โมสต์</t>
+  </si>
+  <si>
+    <t>แดรี่โฮม</t>
+  </si>
+  <si>
+    <t>โชคชัย</t>
+  </si>
+  <si>
+    <t>เอ็มมิลค์</t>
+  </si>
+  <si>
     <t>ไทยเดนมาร์ค</t>
-  </si>
-  <si>
-    <t>แดรี่โฮม</t>
-  </si>
-  <si>
-    <t>โฟร์โมสต์</t>
-  </si>
-  <si>
-    <t>โชคชัย</t>
-  </si>
-  <si>
-    <t>หนองโพ</t>
-  </si>
-  <si>
-    <t>เอ็มมิลค์</t>
   </si>
 </sst>
 </file>
@@ -426,25 +426,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0.03142933186042606</v>
+        <v>0.945160512777253</v>
       </c>
       <c r="D2">
-        <v>0.01008024445162238</v>
+        <v>0.921691217962657</v>
       </c>
       <c r="E2">
-        <v>0.07861401805066046</v>
+        <v>0.989210286140711</v>
       </c>
       <c r="F2">
-        <v>0.004529710325995512</v>
+        <v>0.9946636174046339</v>
       </c>
       <c r="G2">
-        <v>0.02703980123121348</v>
+        <v>0.9992299775551734</v>
       </c>
       <c r="H2">
-        <v>0.0007700224448264598</v>
+        <v>0.9683688130511005</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.03142933186042606</v>
+        <v>0.945160512777253</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0.01171694068245398</v>
+        <v>0.9567158203750427</v>
       </c>
       <c r="E3">
-        <v>0.03473543622206738</v>
+        <v>0.9961987628185567</v>
       </c>
       <c r="F3">
-        <v>0.04412324630986304</v>
+        <v>0.9745997873899477</v>
       </c>
       <c r="G3">
-        <v>0.03011793350327823</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.9768834468250688</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,22 +478,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.01008024445162238</v>
+        <v>0.921691217962657</v>
       </c>
       <c r="C4">
-        <v>0.01171694068245398</v>
+        <v>0.9567158203750427</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.0108507660367423</v>
+        <v>0.9489962603675077</v>
       </c>
       <c r="G4">
-        <v>0.03043781483964634</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.9640871388465885</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -501,22 +501,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.07861401805066046</v>
+        <v>0.989210286140711</v>
       </c>
       <c r="C5">
-        <v>0.03473543622206738</v>
+        <v>0.9961987628185567</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.05100373963249238</v>
+        <v>0.9901356672393252</v>
       </c>
       <c r="G5">
-        <v>0.01454923649611703</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.9873949942801659</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -524,22 +524,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.004529710325995512</v>
+        <v>0.9946636174046339</v>
       </c>
       <c r="C6">
-        <v>0.04412324630986304</v>
+        <v>0.9745997873899477</v>
       </c>
       <c r="D6">
-        <v>0.0108507660367423</v>
+        <v>0.9489962603675077</v>
       </c>
       <c r="E6">
-        <v>0.05100373963249238</v>
+        <v>0.9901356672393252</v>
       </c>
       <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0.05551903320708908</v>
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0.9523922493710767</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -547,22 +547,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.02703980123121348</v>
+        <v>0.9992299775551734</v>
       </c>
       <c r="C7">
-        <v>0.03011793350327823</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>0.03043781483964634</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>0.01454923649611703</v>
-      </c>
-      <c r="F7">
-        <v>0.05551903320708908</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -570,19 +570,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0007700224448264598</v>
+        <v>0.9683688130511005</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.9768834468250688</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.9640871388465885</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.9873949942801659</v>
+      </c>
+      <c r="F8">
+        <v>0.9523922493710767</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/output/comment_robust_cosine.xlsx
+++ b/output/comment_robust_cosine.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
-    <t>เมจิ</t>
+    <t>ซีพีเมจิ</t>
   </si>
   <si>
     <t>ดัชมิลล์</t>
@@ -429,22 +429,22 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.945160512777253</v>
+        <v>0.8952973783119588</v>
       </c>
       <c r="D2">
-        <v>0.921691217962657</v>
+        <v>0.9325226954412086</v>
       </c>
       <c r="E2">
-        <v>0.989210286140711</v>
+        <v>0.9786167182837038</v>
       </c>
       <c r="F2">
-        <v>0.9946636174046339</v>
+        <v>0.9959607732564294</v>
       </c>
       <c r="G2">
-        <v>0.9992299775551734</v>
+        <v>0.9979281596391596</v>
       </c>
       <c r="H2">
-        <v>0.9683688130511005</v>
+        <v>0.9750857607466447</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.945160512777253</v>
+        <v>0.8952973783119588</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.9567158203750427</v>
+        <v>0.9737736000426772</v>
       </c>
       <c r="E3">
-        <v>0.9961987628185567</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.9745997873899477</v>
+        <v>0.9953899927332316</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0.9768834468250688</v>
+        <v>0.9613747750023823</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,22 +478,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.921691217962657</v>
+        <v>0.9325226954412086</v>
       </c>
       <c r="C4">
-        <v>0.9567158203750427</v>
+        <v>0.9737736000426772</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
       <c r="F4">
-        <v>0.9489962603675077</v>
+        <v>0.9581497980904959</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4">
-        <v>0.9640871388465885</v>
+        <v>0.9650221776662172</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -501,22 +504,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.989210286140711</v>
+        <v>0.9786167182837038</v>
       </c>
       <c r="C5">
-        <v>0.9961987628185567</v>
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.9901356672393252</v>
+        <v>0.9896486619202497</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5">
-        <v>0.9873949942801659</v>
+        <v>0.992252968460334</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -524,22 +530,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9946636174046339</v>
+        <v>0.9959607732564294</v>
       </c>
       <c r="C6">
-        <v>0.9745997873899477</v>
+        <v>0.9953899927332316</v>
       </c>
       <c r="D6">
-        <v>0.9489962603675077</v>
+        <v>0.9581497980904959</v>
       </c>
       <c r="E6">
-        <v>0.9901356672393252</v>
+        <v>0.9896486619202497</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
+      <c r="G6">
+        <v>0.9794380522763855</v>
+      </c>
       <c r="H6">
-        <v>0.9523922493710767</v>
+        <v>0.9599258276450507</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -547,7 +556,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9992299775551734</v>
+        <v>0.9979281596391596</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -558,10 +567,10 @@
       <c r="E7">
         <v>1</v>
       </c>
+      <c r="F7">
+        <v>0.9794380522763855</v>
+      </c>
       <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
         <v>1</v>
       </c>
     </row>
@@ -570,22 +579,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9683688130511005</v>
+        <v>0.9750857607466447</v>
       </c>
       <c r="C8">
-        <v>0.9768834468250688</v>
+        <v>0.9613747750023823</v>
       </c>
       <c r="D8">
-        <v>0.9640871388465885</v>
+        <v>0.9650221776662172</v>
       </c>
       <c r="E8">
-        <v>0.9873949942801659</v>
+        <v>0.992252968460334</v>
       </c>
       <c r="F8">
-        <v>0.9523922493710767</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
+        <v>0.9599258276450507</v>
       </c>
       <c r="H8">
         <v>1</v>

--- a/output/comment_robust_cosine.xlsx
+++ b/output/comment_robust_cosine.xlsx
@@ -429,19 +429,19 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.8952973783119588</v>
+        <v>0.8952553916742511</v>
       </c>
       <c r="D2">
-        <v>0.9325226954412086</v>
+        <v>0.9329982683543731</v>
       </c>
       <c r="E2">
         <v>0.9786167182837038</v>
       </c>
       <c r="F2">
-        <v>0.9959607732564294</v>
+        <v>0.9960643431729312</v>
       </c>
       <c r="G2">
-        <v>0.9979281596391596</v>
+        <v>0.99795282440536</v>
       </c>
       <c r="H2">
         <v>0.9750857607466447</v>
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8952973783119588</v>
+        <v>0.8952553916742511</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.9737736000426772</v>
+        <v>0.9739417247812935</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0.9953899927332316</v>
+        <v>0.9954448737721217</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0.9613747750023823</v>
+        <v>0.9615905583822574</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,10 +478,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9325226954412086</v>
+        <v>0.9329982683543731</v>
       </c>
       <c r="C4">
-        <v>0.9737736000426772</v>
+        <v>0.9739417247812935</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -490,13 +490,13 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.9581497980904959</v>
+        <v>0.9592963789647289</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4">
-        <v>0.9650221776662172</v>
+        <v>0.9652328874393125</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -530,13 +530,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9959607732564294</v>
+        <v>0.9960643431729312</v>
       </c>
       <c r="C6">
-        <v>0.9953899927332316</v>
+        <v>0.9954448737721217</v>
       </c>
       <c r="D6">
-        <v>0.9581497980904959</v>
+        <v>0.9592963789647289</v>
       </c>
       <c r="E6">
         <v>0.9896486619202497</v>
@@ -548,7 +548,7 @@
         <v>0.9794380522763855</v>
       </c>
       <c r="H6">
-        <v>0.9599258276450507</v>
+        <v>0.9610089133843737</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,7 +556,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9979281596391596</v>
+        <v>0.99795282440536</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -582,16 +582,16 @@
         <v>0.9750857607466447</v>
       </c>
       <c r="C8">
-        <v>0.9613747750023823</v>
+        <v>0.9615905583822574</v>
       </c>
       <c r="D8">
-        <v>0.9650221776662172</v>
+        <v>0.9652328874393125</v>
       </c>
       <c r="E8">
         <v>0.992252968460334</v>
       </c>
       <c r="F8">
-        <v>0.9599258276450507</v>
+        <v>0.9610089133843737</v>
       </c>
       <c r="H8">
         <v>1</v>
